--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59240.23826425122</v>
+        <v>11788807.41458597</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59240.23826425122</v>
+        <v>11788807.41458597</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>531.6939546521101</v>
+        <v>35821.88137874695</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.6939546521101</v>
+        <v>35821.88137874695</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189418326.296595</v>
+        <v>49015700.92657188</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10173.5972467678</v>
+        <v>1137292.045745968</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19300.61099910065</v>
+        <v>2112170.715814976</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28427.62475143348</v>
+        <v>3087049.385883986</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37628.72763466754</v>
+        <v>4067126.716429206</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46809.16142699251</v>
+        <v>5043090.897883518</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55989.59521931748</v>
+        <v>6019055.079337828</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65170.02901164244</v>
+        <v>6995019.260792134</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74350.46280396741</v>
+        <v>7970983.442246441</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83520.57869245403</v>
+        <v>8945674.372904385</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92694.25821730426</v>
+        <v>9921074.467198692</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101867.9377421545</v>
+        <v>10896474.561493</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110968.8420899404</v>
+        <v>11867127.27269875</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120089.7028013627</v>
+        <v>12841751.30026813</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129210.563512785</v>
+        <v>13816375.32783751</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138331.4242242074</v>
+        <v>14790999.35540689</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>392</v>
@@ -27055,10 +27055,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>393</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>363</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
